--- a/biology/Médecine/Photinos_Panas/Photinos_Panas.xlsx
+++ b/biology/Médecine/Photinos_Panas/Photinos_Panas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Photinos Panas, né le 30 janvier 1832 sur l'île grecque de Céphalonie et mort en 1903, est un ophtalmologue et chirurgien français d'origine grecque.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Photinos Panas étudie la médecine à Paris où il obtient, en 1860, son doctorat avec sa thèse sur l'anatomie des fosses nasales et les canaux lacrymaux.
 En 1865, il est naturalisé français et devient chirurgien hospitalier dans les hôpitaux de Paris, notamment l'hôpital Bicêtre, l'hôpital Lourcine, l'hôpital Saint-Antoine et l'hôpital de l'Hôtel-Dieu de Paris
